--- a/Resources/ConfigExcel/configExcel.xlsx
+++ b/Resources/ConfigExcel/configExcel.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofnu\Documents\Personal\FI\Fintec\datavalidation\dataValidation\Resources\ConfigExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlakshmanan\Documents\Harini\PROJECTS\Sample Works\git\dataValidation_generic\Resources\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9C314-3306-41F6-8A9D-ABB0DF67A92D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF47BE-BA68-4B9C-AB54-1FB06C19DACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_ConfigSheet" sheetId="1" r:id="rId1"/>
     <sheet name="JSON_ConfigSheet" sheetId="4" r:id="rId2"/>
     <sheet name="BusinessRules" sheetId="3" r:id="rId3"/>
-    <sheet name="DB Config" sheetId="2" r:id="rId4"/>
+    <sheet name="DB_ConfigSheet" sheetId="2" r:id="rId4"/>
+    <sheet name="MasterConfigSheet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
   <si>
     <t>Source Col Names for comparison</t>
   </si>
@@ -251,6 +252,90 @@
   </si>
   <si>
     <t>homeaddress</t>
+  </si>
+  <si>
+    <t>Source DB Name</t>
+  </si>
+  <si>
+    <t>Source DB Field Length</t>
+  </si>
+  <si>
+    <t>Target DB Name</t>
+  </si>
+  <si>
+    <t>Target DB Field Length</t>
+  </si>
+  <si>
+    <t>jdbc:sqlserver://USBLRHLAKSHMAN4</t>
+  </si>
+  <si>
+    <t>testlogin</t>
+  </si>
+  <si>
+    <t>Admin123456</t>
+  </si>
+  <si>
+    <t>demo1</t>
+  </si>
+  <si>
+    <t>demo_1_table_1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>where name='Harini'</t>
+  </si>
+  <si>
+    <t>demo2</t>
+  </si>
+  <si>
+    <t>demo_2_table_1</t>
+  </si>
+  <si>
+    <t>rollno</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>TargetType</t>
+  </si>
+  <si>
+    <t>Unqiue Source Column Name</t>
+  </si>
+  <si>
+    <t>Implementation of Unique Column</t>
+  </si>
+  <si>
+    <t>Unique Target Column Name</t>
+  </si>
+  <si>
+    <t>File relationship Implmentation</t>
+  </si>
+  <si>
+    <t>Source File Path</t>
+  </si>
+  <si>
+    <t>Target File Path</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>C:\Users\anandr2\git\datavalidation\dataValidation\Resources\CSV\sourceCSV</t>
+  </si>
+  <si>
+    <t>C:\Users\anandr2\git\datavalidation\dataValidation\Resources\CSV\targetCSV</t>
   </si>
 </sst>
 </file>
@@ -868,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C108CB1C-E79D-4E4D-B88D-9B7271A8929B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -1124,65 +1209,272 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0526341-B479-4419-847B-70B903809B00}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEFC164-7034-4FDD-9E28-8F63E69C8850}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/ConfigExcel/configExcel.xlsx
+++ b/Resources/ConfigExcel/configExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlakshmanan\Documents\Harini\PROJECTS\Sample Works\git\dataValidation_generic\Resources\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF47BE-BA68-4B9C-AB54-1FB06C19DACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90964D-8D47-4BED-91B0-9B4470913790}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_ConfigSheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>Source Col Names for comparison</t>
   </si>
@@ -284,9 +284,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>where name='Harini'</t>
-  </si>
-  <si>
     <t>demo2</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>Unique Target Column Name</t>
   </si>
   <si>
-    <t>File relationship Implmentation</t>
-  </si>
-  <si>
     <t>Source File Path</t>
   </si>
   <si>
@@ -336,6 +330,15 @@
   </si>
   <si>
     <t>C:\Users\anandr2\git\datavalidation\dataValidation\Resources\CSV\targetCSV</t>
+  </si>
+  <si>
+    <t>File relationship Implementation</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>db</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C108CB1C-E79D-4E4D-B88D-9B7271A8929B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1212,10 +1215,14 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -1289,9 +1296,7 @@
       <c r="F2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2">
         <v>10</v>
       </c>
@@ -1308,10 +1313,10 @@
         <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>60</v>
@@ -1338,7 +1343,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1357,13 +1362,13 @@
         <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2">
@@ -1387,7 +1392,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -1406,13 +1411,13 @@
         <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2">
@@ -1426,55 +1431,79 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEFC164-7034-4FDD-9E28-8F63E69C8850}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/ConfigExcel/configExcel.xlsx
+++ b/Resources/ConfigExcel/configExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlakshmanan\Documents\Harini\PROJECTS\Sample Works\git\dataValidation_generic\Resources\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90964D-8D47-4BED-91B0-9B4470913790}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2970D7E-F451-455F-A5AD-1ABD1E820236}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_ConfigSheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
   <si>
     <t>Source Col Names for comparison</t>
   </si>
@@ -251,9 +251,6 @@
     <t>payment_LEGACY_tenderType</t>
   </si>
   <si>
-    <t>homeaddress</t>
-  </si>
-  <si>
     <t>Source DB Name</t>
   </si>
   <si>
@@ -278,24 +275,9 @@
     <t>demo1</t>
   </si>
   <si>
-    <t>demo_1_table_1</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>demo2</t>
   </si>
   <si>
-    <t>demo_2_table_1</t>
-  </si>
-  <si>
-    <t>rollno</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>SourceType</t>
   </si>
   <si>
@@ -339,6 +321,12 @@
   </si>
   <si>
     <t>db</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>storeorders</t>
   </si>
 </sst>
 </file>
@@ -709,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77614478-7D53-497D-8622-EAA9869D0D22}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,29 +912,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C108CB1C-E79D-4E4D-B88D-9B7271A8929B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D26367-D290-48EA-A471-4232BF3E06F5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1212,16 +1177,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0526341-B479-4419-847B-70B903809B00}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
     <col min="7" max="7" width="18.7265625" customWidth="1"/>
     <col min="9" max="9" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58" x14ac:dyDescent="0.35">
@@ -1235,7 +1214,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -1247,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
@@ -1262,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>14</v>
@@ -1274,27 +1253,27 @@
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
@@ -1304,46 +1283,46 @@
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1353,46 +1332,46 @@
         <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -1402,27 +1381,247 @@
         <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2">
         <v>10</v>
       </c>
+    </row>
+    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,59 +1650,59 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/ConfigExcel/configExcel.xlsx
+++ b/Resources/ConfigExcel/configExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlakshmanan\Documents\Harini\PROJECTS\Sample Works\git\dataValidation_generic\Resources\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2970D7E-F451-455F-A5AD-1ABD1E820236}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C54C99-BCCB-4011-99A7-0DC5181A132B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{F1A6AC05-7DA6-473D-A4DF-E66A738FAE60}"/>
   </bookViews>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0526341-B479-4419-847B-70B903809B00}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
